--- a/outputs/tables/metal_corr_pretty.xlsx
+++ b/outputs/tables/metal_corr_pretty.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarprice/Documents/University/Year 3/Term 1/Dissertation/R/Dissertation/outputs/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02D6980-C45F-C949-A7CA-0FD231E5F8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44F6260-7DE2-E64B-BEF4-7C2B880033E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="21000" xr2:uid="{47B39684-8103-F242-9601-0401C8A14048}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="21000" xr2:uid="{47B39684-8103-F242-9601-0401C8A14048}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>Al</t>
   </si>
@@ -88,8 +89,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -131,10 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -143,6 +144,12 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,11 +491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64844F9E-7F45-454B-A370-EF5538357D0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DB9F1D-5752-FF4D-AF6F-A704BB0563CF}">
   <dimension ref="A1:AW22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G7" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,15 +519,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -532,19 +539,19 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>-0.25649481355059062</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6">
+        <v>9.7510099879293405E-2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -586,21 +593,21 @@
       <c r="AW2" s="1"/>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>-0.1774317059598991</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.30069626682215622</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.82174572854003103</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.31677022026049501</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -642,23 +649,23 @@
       <c r="AW3" s="1"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>-0.43593567159526808</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.58947121285805537</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.28092450648337453</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.63194299396744902</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.25344414918532598</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.52532097881190598</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -700,25 +707,25 @@
       <c r="AW4" s="1"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>-0.56259265726146079</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.83891998807254742</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.34777100049598458</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.74041297935103245</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5"/>
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.52025875860064696</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.277094115282431</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.72760826935317102</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.254537160974249</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -760,26 +767,26 @@
       <c r="AW5" s="1"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>-6.1764705882352937E-2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.64939149326681322</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.5593323302164438</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.72312302281512375</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.52135549913758417</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>5</v>
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.95975333218065095</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.196019148740357</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.900445587946895</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.57187423611658195</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.62361956825737597</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -822,30 +829,28 @@
       <c r="AW6" s="1"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.57352941176470584</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.12750609228526469</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-0.1520843193941992</v>
-      </c>
-      <c r="E7" s="5">
-        <v>-0.30633317463451271</v>
-      </c>
-      <c r="F7" s="5">
-        <v>-0.31958797546004453</v>
-      </c>
-      <c r="G7" s="5">
-        <v>6.4705882352941169E-2</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.23294121796228601</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-0.32824245221579801</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.37263814795271499</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-0.200230864329701</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.48634834327649301</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.26462886194712298</v>
+      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -886,33 +891,15 @@
       <c r="AW7" s="1"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>-4.6054757886475749E-2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-0.15632053043844449</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.36162458785899387</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.32747071018842849</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1.5374211745935611E-2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.28860981608858127</v>
-      </c>
-      <c r="H8" s="5">
-        <v>-0.1166720533124052</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -952,36 +939,16 @@
       <c r="AW8" s="1"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-0.140028008402801</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.3670537432359432</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.22526503627855629</v>
-      </c>
-      <c r="E9" s="5">
-        <v>8.4140632382334254E-2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.42070316191167118</v>
-      </c>
-      <c r="G9" s="5">
-        <v>8.4016805041680589E-2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>-8.4016805041680589E-2</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.26311740579210868</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1020,39 +987,17 @@
       <c r="AW9" s="1"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>-0.69072239857493489</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.56942622199260517</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.4924640444979636</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.81342182890855452</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.86725663716814161</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.53166478866855327</v>
-      </c>
-      <c r="H10" s="5">
-        <v>-0.47570007407186349</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.21985122796687931</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.19632814222544659</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -1090,42 +1035,18 @@
       <c r="AW10" s="1"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>-0.32671090522641938</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.86871826626925486</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.35343355937950099</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.61753885596042568</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.79734730566727996</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.57983827323968129</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.1118469765639994</v>
-      </c>
-      <c r="I11" s="5">
-        <v>-0.20432638856424309</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.25223595097285623</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0.66028020875959592</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1162,45 +1083,19 @@
       <c r="AW11" s="1"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>-0.46789986452701698</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.7083403919262985</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.49016505009990891</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.901702142655602</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.84996513447044464</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.67159128820123892</v>
-      </c>
-      <c r="H12" s="5">
-        <v>-0.2066434732926889</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.28351343362622822</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0.19676394329936581</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0.90835404370797945</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0.77991477701161693</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="S12" s="2"/>
@@ -1236,48 +1131,20 @@
       <c r="AW12" s="1"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>-0.67844021310531244</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.65209509483405215</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.46504415707829078</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.70007388205537513</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.79439962616388882</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.45768960146583992</v>
-      </c>
-      <c r="H13" s="5">
-        <v>-0.30757918555099839</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0.1490199976746735</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0.36434081807190349</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0.85040553672831887</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0.6921944035346097</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0.82422811661454976</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="5"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -1312,51 +1179,21 @@
       <c r="AW13" s="1"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>-0.6047223950527344</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.71227730457684868</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.34913248362800658</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.5775486359677775</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.88183257205310261</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0.29498653417206561</v>
-      </c>
-      <c r="H14" s="5">
-        <v>-0.25663828472969702</v>
-      </c>
-      <c r="I14" s="5">
-        <v>6.1587751463495046E-3</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0.42132504423474321</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0.83308805802001662</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0.72029696836390011</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.79200613850371726</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0.90479926558825985</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1390,51 +1227,21 @@
       <c r="AW14" s="1"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>-0.39411764705882352</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.63901309040638476</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.30078898724630521</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.9484546368491642</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.73343231234609296</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.73235294117647065</v>
-      </c>
-      <c r="H15" s="5">
-        <v>-0.30588235294117638</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.14430490804429069</v>
-      </c>
-      <c r="J15" s="5">
-        <v>8.4016805041680589E-2</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.76436018093900049</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0.65636515194136513</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0.86347451340159298</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0.654893481197102</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0.54867495356004192</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1747,4 +1554,1270 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64844F9E-7F45-454B-A370-EF5538357D0F}">
+  <dimension ref="A1:AW22"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="48" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-0.25649481355059062</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-0.1774317059598991</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.30069626682215622</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-0.43593567159526808</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.58947121285805537</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.28092450648337453</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-0.56259265726146079</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.83891998807254742</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.34777100049598458</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.74041297935103245</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-6.1764705882352937E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.64939149326681322</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.5593323302164438</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.72312302281512375</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.52135549913758417</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.57352941176470584</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.12750609228526469</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.1520843193941992</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-0.30633317463451271</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-0.31958797546004453</v>
+      </c>
+      <c r="G7" s="5">
+        <v>6.4705882352941169E-2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-4.6054757886475749E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-0.15632053043844449</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.36162458785899387</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.32747071018842849</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.5374211745935611E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.28860981608858127</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-0.1166720533124052</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-0.140028008402801</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.3670537432359432</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.22526503627855629</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8.4140632382334254E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.42070316191167118</v>
+      </c>
+      <c r="G9" s="5">
+        <v>8.4016805041680589E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>-8.4016805041680589E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.26311740579210868</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-0.69072239857493489</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.56942622199260517</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.4924640444979636</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.81342182890855452</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.86725663716814161</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.53166478866855327</v>
+      </c>
+      <c r="H10" s="5">
+        <v>-0.47570007407186349</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.21985122796687931</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.19632814222544659</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-0.32671090522641938</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.86871826626925486</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.35343355937950099</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.61753885596042568</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.79734730566727996</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.57983827323968129</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.1118469765639994</v>
+      </c>
+      <c r="I11" s="5">
+        <v>-0.20432638856424309</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.25223595097285623</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.66028020875959592</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-0.46789986452701698</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.7083403919262985</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.49016505009990891</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.901702142655602</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.84996513447044464</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.67159128820123892</v>
+      </c>
+      <c r="H12" s="5">
+        <v>-0.2066434732926889</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.28351343362622822</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.19676394329936581</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.90835404370797945</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.77991477701161693</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-0.67844021310531244</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.65209509483405215</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.46504415707829078</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.70007388205537513</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.79439962616388882</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.45768960146583992</v>
+      </c>
+      <c r="H13" s="5">
+        <v>-0.30757918555099839</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.1490199976746735</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.36434081807190349</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.85040553672831887</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.6921944035346097</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.82422811661454976</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-0.6047223950527344</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.71227730457684868</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.34913248362800658</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.5775486359677775</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.88183257205310261</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.29498653417206561</v>
+      </c>
+      <c r="H14" s="5">
+        <v>-0.25663828472969702</v>
+      </c>
+      <c r="I14" s="5">
+        <v>6.1587751463495046E-3</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.42132504423474321</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.83308805802001662</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.72029696836390011</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.79200613850371726</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.90479926558825985</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-0.39411764705882352</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.63901309040638476</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.30078898724630521</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.9484546368491642</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.73343231234609296</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.73235294117647065</v>
+      </c>
+      <c r="H15" s="5">
+        <v>-0.30588235294117638</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.14430490804429069</v>
+      </c>
+      <c r="J15" s="5">
+        <v>8.4016805041680589E-2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.76436018093900049</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.65636515194136513</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.86347451340159298</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.654893481197102</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.54867495356004192</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+    </row>
+    <row r="17" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+    </row>
+    <row r="18" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+    </row>
+    <row r="19" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+    </row>
+    <row r="20" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+    </row>
+    <row r="21" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+    </row>
+    <row r="22" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="P2:P16 B1:O15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF007DD6"/>
+        <color theme="0"/>
+        <color rgb="FFFF2600"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>